--- a/public/download/participants_template.xlsx
+++ b/public/download/participants_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caffi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caffi/code/qr-checkin/public/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3783F0C8-FDF3-A841-8CED-43237139CA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37179A97-9C29-9F41-840B-0874E959FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5920" yWindow="880" windowWidth="28240" windowHeight="17440" xr2:uid="{66DA2710-18F2-F24B-B664-ABF94AA12FED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>自由欄3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリガナ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -546,54 +550,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04917107-4F4D-4D45-80AD-B45B8C4E6775}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="4"/>
-    <col min="7" max="7" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(AND(LEN(B1)=11,ISNUMBER(B1)))</formula>
+      <formula>NOT(AND(LEN(C1)=11,ISNUMBER(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/download/participants_template.xlsx
+++ b/public/download/participants_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caffi/code/qr-checkin/public/download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37179A97-9C29-9F41-840B-0874E959FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4FDF61-9B2E-1B46-A5F5-BD5973A085FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5920" yWindow="880" windowWidth="28240" windowHeight="17440" xr2:uid="{66DA2710-18F2-F24B-B664-ABF94AA12FED}"/>
   </bookViews>
@@ -59,13 +59,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>地区</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">チク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>役務</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">エキム </t>
@@ -98,6 +91,13 @@
   </si>
   <si>
     <t>フリガナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ダン </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -553,7 +553,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -582,19 +582,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
